--- a/outputs-HGR-r202/f__CAG-314.xlsx
+++ b/outputs-HGR-r202/f__CAG-314.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,11 @@
           <t>g__UMGS692</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>g__UMGS692</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -535,6 +545,11 @@
           <t>g__UMGS692</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>g__UMGS692</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -565,6 +580,11 @@
           <t>g__CAG-314</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>g__CAG-314</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -591,6 +611,11 @@
         <v>0.9711155735797471</v>
       </c>
       <c r="H5" t="inlineStr">
+        <is>
+          <t>g__UMGS692</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>g__UMGS692</t>
         </is>

--- a/outputs-HGR-r202/f__CAG-314.xlsx
+++ b/outputs-HGR-r202/f__CAG-314.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,41 +586,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT70200.fa</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2.301421446735282e-13</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3.526857435678888e-05</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.301421446735283e-13</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.9711155735797471</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.02884915784543575</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.9711155735797471</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>g__UMGS692</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>g__UMGS692</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
